--- a/dss/PyomoSolver/case_data.xlsx
+++ b/dss/PyomoSolver/case_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>material</t>
   </si>
@@ -64,6 +64,9 @@
     <t>600106</t>
   </si>
   <si>
+    <t>600268</t>
+  </si>
+  <si>
     <t>1.30473601105044</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>1.33724965052823</t>
   </si>
   <si>
+    <t>1.34186652871068</t>
+  </si>
+  <si>
     <t>103.773991794709</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>103.737674650927</t>
+  </si>
+  <si>
+    <t>103.74503522598</t>
   </si>
   <si>
     <t>B</t>
@@ -481,7 +490,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,6 +521,11 @@
         <v>257</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -519,7 +533,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -576,13 +590,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -596,13 +610,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -616,13 +630,33 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>258</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +666,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -646,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -686,6 +720,23 @@
         <v>640</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>258</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>640</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
@@ -710,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -727,7 +778,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -741,7 +792,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>6500</v>
       </c>
     </row>
   </sheetData>
@@ -751,49 +802,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>52</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>53</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>256</v>
       </c>
@@ -804,11 +849,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>257</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>258</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
@@ -819,65 +875,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>52</v>
       </c>
-      <c r="D2">
-        <v>7390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>53</v>
       </c>
-      <c r="D3">
-        <v>7332</v>
-      </c>
-      <c r="E3">
-        <v>6292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>256</v>
       </c>
       <c r="B4">
-        <v>6145</v>
+        <v>6.145</v>
       </c>
       <c r="C4">
-        <v>6203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6.203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>257</v>
       </c>
       <c r="C5">
-        <v>6953</v>
+        <v>6.953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>258</v>
+      </c>
+      <c r="B6">
+        <v>7.206</v>
+      </c>
+      <c r="C6">
+        <v>7.264</v>
       </c>
     </row>
   </sheetData>

--- a/dss/PyomoSolver/case_data.xlsx
+++ b/dss/PyomoSolver/case_data.xlsx
@@ -12,15 +12,17 @@
     <sheet name="industry" sheetId="3" r:id="rId3"/>
     <sheet name="industry_supply" sheetId="4" r:id="rId4"/>
     <sheet name="industry_demand" sheetId="5" r:id="rId5"/>
-    <sheet name="feasible" sheetId="6" r:id="rId6"/>
-    <sheet name="distance" sheetId="7" r:id="rId7"/>
+    <sheet name="investment_demand" sheetId="6" r:id="rId6"/>
+    <sheet name="invest_cost" sheetId="7" r:id="rId7"/>
+    <sheet name="feasible" sheetId="8" r:id="rId8"/>
+    <sheet name="distance" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>material</t>
   </si>
@@ -31,6 +33,21 @@
     <t>entity</t>
   </si>
   <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
     <t>company</t>
   </si>
   <si>
@@ -46,57 +63,48 @@
     <t>BS</t>
   </si>
   <si>
-    <t>dispatchbuyer</t>
-  </si>
-  <si>
-    <t>dispatchseller</t>
+    <t>sellerbuyer</t>
+  </si>
+  <si>
+    <t>sellerdispatch</t>
+  </si>
+  <si>
+    <t>600101</t>
+  </si>
+  <si>
+    <t>600106</t>
+  </si>
+  <si>
+    <t>138600</t>
   </si>
   <si>
     <t>138601</t>
   </si>
   <si>
-    <t>138600</t>
-  </si>
-  <si>
-    <t>600101</t>
-  </si>
-  <si>
-    <t>600106</t>
-  </si>
-  <si>
-    <t>600268</t>
+    <t>1.33701100762294</t>
+  </si>
+  <si>
+    <t>1.33724965052823</t>
+  </si>
+  <si>
+    <t>1.3053214796692</t>
   </si>
   <si>
     <t>1.30473601105044</t>
   </si>
   <si>
-    <t>1.3053214796692</t>
-  </si>
-  <si>
-    <t>1.33701100762294</t>
-  </si>
-  <si>
-    <t>1.33724965052823</t>
-  </si>
-  <si>
-    <t>1.34186652871068</t>
+    <t>103.738787314099</t>
+  </si>
+  <si>
+    <t>103.737674650927</t>
+  </si>
+  <si>
+    <t>103.773948937801</t>
   </si>
   <si>
     <t>103.773991794709</t>
   </si>
   <si>
-    <t>103.773948937801</t>
-  </si>
-  <si>
-    <t>103.738787314099</t>
-  </si>
-  <si>
-    <t>103.737674650927</t>
-  </si>
-  <si>
-    <t>103.74503522598</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -110,6 +118,9 @@
   </si>
   <si>
     <t>delivery_fee</t>
+  </si>
+  <si>
+    <t>invest_cost</t>
   </si>
 </sst>
 </file>
@@ -490,7 +501,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,27 +514,47 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6">
-        <v>258</v>
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +564,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,119 +575,99 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>258</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +677,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -680,27 +691,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D2">
-        <v>640</v>
+        <v>-77</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -708,35 +719,18 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D3">
-        <v>640</v>
+        <v>-77</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>258</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>640</v>
-      </c>
-      <c r="E4">
         <v>1</v>
       </c>
     </row>
@@ -761,15 +755,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -778,12 +772,12 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>6500</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -792,7 +786,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
     </row>
   </sheetData>
@@ -802,70 +796,94 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>256</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>257</v>
+        <v>1500</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>258</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -875,16 +893,77 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>833946.295261181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1264026.215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1612170.004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1915905.475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -900,45 +979,230 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B4">
-        <v>6.145</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C5">
-        <v>6.953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>258</v>
-      </c>
-      <c r="B6">
-        <v>7.206</v>
-      </c>
-      <c r="C6">
-        <v>7.264</v>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>259</v>
+      </c>
+      <c r="B4">
+        <v>7.332</v>
+      </c>
+      <c r="C4">
+        <v>6.292</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>260</v>
+      </c>
+      <c r="C5">
+        <v>6.35</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dss/PyomoSolver/case_data.xlsx
+++ b/dss/PyomoSolver/case_data.xlsx
@@ -12,17 +12,15 @@
     <sheet name="industry" sheetId="3" r:id="rId3"/>
     <sheet name="industry_supply" sheetId="4" r:id="rId4"/>
     <sheet name="industry_demand" sheetId="5" r:id="rId5"/>
-    <sheet name="investment_demand" sheetId="6" r:id="rId6"/>
-    <sheet name="invest_cost" sheetId="7" r:id="rId7"/>
-    <sheet name="feasible" sheetId="8" r:id="rId8"/>
-    <sheet name="distance" sheetId="9" r:id="rId9"/>
+    <sheet name="feasible" sheetId="6" r:id="rId6"/>
+    <sheet name="distance" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>material</t>
   </si>
@@ -30,24 +28,15 @@
     <t>Food Waste</t>
   </si>
   <si>
+    <t>E-Waste, ICT Equipment</t>
+  </si>
+  <si>
+    <t>E-Waste</t>
+  </si>
+  <si>
     <t>entity</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -63,16 +52,28 @@
     <t>BS</t>
   </si>
   <si>
-    <t>sellerbuyer</t>
-  </si>
-  <si>
-    <t>sellerdispatch</t>
-  </si>
-  <si>
-    <t>600101</t>
-  </si>
-  <si>
-    <t>600106</t>
+    <t>FoodWasteBuyer1</t>
+  </si>
+  <si>
+    <t>FoodWasteBuyer2</t>
+  </si>
+  <si>
+    <t>EWasteBuyer1</t>
+  </si>
+  <si>
+    <t>EWasteBuyer2</t>
+  </si>
+  <si>
+    <t>FoodWasteSeller2</t>
+  </si>
+  <si>
+    <t>FoodWasteSeller1</t>
+  </si>
+  <si>
+    <t>EWasteSeller1</t>
+  </si>
+  <si>
+    <t>EWasteSeller2</t>
   </si>
   <si>
     <t>138600</t>
@@ -81,10 +82,16 @@
     <t>138601</t>
   </si>
   <si>
-    <t>1.33701100762294</t>
-  </si>
-  <si>
-    <t>1.33724965052823</t>
+    <t>639460</t>
+  </si>
+  <si>
+    <t>638996</t>
+  </si>
+  <si>
+    <t>605897</t>
+  </si>
+  <si>
+    <t>597656</t>
   </si>
   <si>
     <t>1.3053214796692</t>
@@ -93,10 +100,13 @@
     <t>1.30473601105044</t>
   </si>
   <si>
-    <t>103.738787314099</t>
-  </si>
-  <si>
-    <t>103.737674650927</t>
+    <t>1.32675931049981</t>
+  </si>
+  <si>
+    <t>1.32454054326825</t>
+  </si>
+  <si>
+    <t>1.33253455690371</t>
   </si>
   <si>
     <t>103.773948937801</t>
@@ -105,6 +115,15 @@
     <t>103.773991794709</t>
   </si>
   <si>
+    <t>103.655123261088</t>
+  </si>
+  <si>
+    <t>103.639491831506</t>
+  </si>
+  <si>
+    <t>103.751544753156</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -118,9 +137,6 @@
   </si>
   <si>
     <t>delivery_fee</t>
-  </si>
-  <si>
-    <t>invest_cost</t>
   </si>
 </sst>
 </file>
@@ -478,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,6 +510,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -501,7 +527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -509,52 +535,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>259</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>260</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="A6">
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7">
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>5</v>
+      <c r="A8">
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>7</v>
+      <c r="A9">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +585,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -572,102 +593,176 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>264</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +772,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -685,30 +780,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>-77</v>
@@ -719,18 +814,52 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>-77</v>
+        <v>-60</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
@@ -741,7 +870,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -749,44 +878,72 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>6400</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>6400</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -796,94 +953,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1500</v>
-      </c>
-      <c r="D4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>262</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>41</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>261</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>263</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>264</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -893,76 +1059,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>833946.295261181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1264026.215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1612170.004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1915905.475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>30000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -988,221 +1093,69 @@
       <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>259</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>260</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>259</v>
-      </c>
-      <c r="B4">
-        <v>7.332</v>
-      </c>
-      <c r="C4">
-        <v>6.292</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>260</v>
-      </c>
-      <c r="C5">
-        <v>6.35</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>262</v>
+      </c>
+      <c r="B6">
+        <v>16.157</v>
+      </c>
+      <c r="C6">
+        <v>16.099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>261</v>
+      </c>
+      <c r="B7">
+        <v>18.131</v>
+      </c>
+      <c r="C7">
+        <v>18.073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>263</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>264</v>
+      </c>
+      <c r="D9">
+        <v>6.145</v>
+      </c>
+      <c r="E9">
+        <v>6.088</v>
       </c>
     </row>
   </sheetData>

--- a/dss/PyomoSolver/case_data.xlsx
+++ b/dss/PyomoSolver/case_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>material</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Food Waste</t>
   </si>
   <si>
-    <t>E-Waste, ICT Equipment</t>
-  </si>
-  <si>
-    <t>E-Waste</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
@@ -58,24 +52,12 @@
     <t>FoodWasteBuyer2</t>
   </si>
   <si>
-    <t>EWasteBuyer1</t>
-  </si>
-  <si>
-    <t>EWasteBuyer2</t>
-  </si>
-  <si>
     <t>FoodWasteSeller2</t>
   </si>
   <si>
     <t>FoodWasteSeller1</t>
   </si>
   <si>
-    <t>EWasteSeller1</t>
-  </si>
-  <si>
-    <t>EWasteSeller2</t>
-  </si>
-  <si>
     <t>138600</t>
   </si>
   <si>
@@ -88,12 +70,6 @@
     <t>638996</t>
   </si>
   <si>
-    <t>605897</t>
-  </si>
-  <si>
-    <t>597656</t>
-  </si>
-  <si>
     <t>1.3053214796692</t>
   </si>
   <si>
@@ -106,9 +82,6 @@
     <t>1.32454054326825</t>
   </si>
   <si>
-    <t>1.33253455690371</t>
-  </si>
-  <si>
     <t>103.773948937801</t>
   </si>
   <si>
@@ -119,9 +92,6 @@
   </si>
   <si>
     <t>103.639491831506</t>
-  </si>
-  <si>
-    <t>103.751544753156</t>
   </si>
   <si>
     <t>B</t>
@@ -494,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,16 +480,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -527,7 +487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,47 +495,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>59</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
         <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -593,176 +533,102 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>262</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>261</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>264</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +637,125 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+      <c r="D2">
+        <v>-77</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>-76</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -780,87 +765,51 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>262</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>-77</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>261</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>-60</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>263</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>264</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>110</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -868,100 +817,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -975,187 +841,37 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="B4">
+        <v>16.157</v>
+      </c>
+      <c r="C4">
+        <v>16.099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>262</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
         <v>261</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>263</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>264</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>262</v>
-      </c>
-      <c r="B6">
-        <v>16.157</v>
-      </c>
-      <c r="C6">
-        <v>16.099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>261</v>
-      </c>
-      <c r="B7">
+      <c r="B5">
         <v>18.131</v>
       </c>
-      <c r="C7">
+      <c r="C5">
         <v>18.073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>263</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>264</v>
-      </c>
-      <c r="D9">
-        <v>6.145</v>
-      </c>
-      <c r="E9">
-        <v>6.088</v>
       </c>
     </row>
   </sheetData>
